--- a/data/nanaimo/Stressor_Magnitude.xlsx
+++ b/data/nanaimo/Stressor_Magnitude.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattj\Dropbox\EN2921 - DFO Nanaimo Chinook CEMPRA\3 - CEMPRA Development\Model Runs\Data Inputs\Population Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattj\Dropbox\Projects\EN2691 CEPopMod\main\CEMPRAShiny\data\nanaimo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5289B885-C636-4216-813F-DCAE1393130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B360CCE-9431-499C-82FA-40B83E4F567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F5A0EA6-91D8-489A-AB2F-143BAD013031}"/>
+    <workbookView xWindow="22932" yWindow="-36" windowWidth="23256" windowHeight="12456" xr2:uid="{8F5A0EA6-91D8-489A-AB2F-143BAD013031}"/>
   </bookViews>
   <sheets>
     <sheet name="Status Quo" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="24">
   <si>
     <t>HUC_ID</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Estuary_Survival</t>
+  </si>
+  <si>
+    <t>Extra_metric</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -352,10 +355,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -692,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE60CEFD-13A5-44B5-8B79-01933A90734F}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,10 +754,10 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>2.77</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>1.2</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -783,10 +783,10 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>5.61</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>2.9</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -812,10 +812,10 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>6.27</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>3.2</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -841,10 +841,10 @@
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>41.3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -870,10 +870,10 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>25.2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -899,10 +899,10 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>10.3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -928,10 +928,10 @@
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>35.200000000000003</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -957,10 +957,10 @@
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>34</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -986,10 +986,10 @@
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>25.1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1015,10 +1015,10 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>37.6</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1044,10 +1044,10 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>49</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1073,10 +1073,10 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>41.4</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1102,10 +1102,10 @@
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2">
         <v>7.2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="2">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1131,10 +1131,10 @@
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>7.2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1160,10 +1160,10 @@
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>5.2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1522,6 +1522,93 @@
       </c>
       <c r="I28" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="4">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="4">
+        <v>22</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="4">
+        <v>33</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
